--- a/output/fit_clients/fit_round_83.xlsx
+++ b/output/fit_clients/fit_round_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9841670407.169775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003154256679230365</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5413426179352381</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.842283245705664</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7775990264698549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.842283245705664</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4766888714.958101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004465817444272851</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.367620753197332</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8869530977414583</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.367620753197332</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6479476341.456854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003639083935607157</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.715016952379908</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9322044057300873</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.715016952379908</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3683830635.921276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003239436335025227</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.514036450708653</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8296607979080202</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.514036450708653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6502759703.203631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001863700866460505</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8890183546620306</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.235242889400634</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9777731846322275</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.235242889400634</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7698296288.463758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001005597776079317</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.422822508678185</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9004313940697714</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.422822508678185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6266035787.797832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.0033320168175163</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.138132621753992</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9471676990075679</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.138132621753992</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5493815792.466474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003517178598072855</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.723081180422687</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8835708071883716</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.723081180422687</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4615832296.601431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004057678617990368</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.490568197127538</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9289602996925004</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.490568197127538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4240938170.094242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001080814123270162</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.338408827500228</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.774612076545023</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.338408827500228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6176837519.90954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002154409903367458</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.762815972162818</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.966036917868723</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.762815972162818</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5504802560.745814</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003690326109448741</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.361635166194775</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.010702006679348</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.361635166194775</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6062871294.830852</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002470937764557312</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.845901086390706</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.889231667715071</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.845901086390706</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5520313903.801735</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005642162666805517</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.115635536556391</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9774029848108239</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.115635536556391</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5784251452.793949</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004780746622603278</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.924036987866248</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9071090557552258</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.924036987866248</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4683626787.037387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002790826633321297</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.883358850814428</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9354343280057051</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.883358850814428</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7100340768.56068</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001102025760723497</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9119339683018545</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.710034220957739</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.045649466824954</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.710034220957739</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4034271406.444248</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001507688014101802</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.525773282526134</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8959652410076434</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.525773282526134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>3825099470.890601</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001289727272894164</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.901318582535698</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8187254704444222</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.901318582535698</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7079764088.258803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004910651048770258</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.757399144374984</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8593785199032891</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.757399144374984</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6120952437.67637</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005357739728880016</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7564416066201302</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.441119414559145</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.803628110312341</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.441119414559145</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7609076990.919361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001495520212881804</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.172382640839758</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8464161042913476</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.172382640839758</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6628142943.176735</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003414550715422074</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.777510631041978</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9722499841848706</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.777510631041978</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5947339146.206563</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00259958305254198</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.148119294919724</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9354372612422441</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.148119294919724</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5734069549.169508</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0010467299453612</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.168963798667982</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.801353760294487</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.168963798667982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7436489312.930338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003264457707234943</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.615621931682113</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9224586825714777</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.615621931682113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5662341252.615891</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005393650676578209</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9765396972531358</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.784651976486358</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.076252615233324</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.784651976486358</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5694034985.046099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001479520727232771</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.863074575765295</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9670780381668121</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.863074575765295</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5858781818.915745</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003501261615796029</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.876338017236194</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.207468568199469</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9683325470926022</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.207468568199469</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7519586941.600376</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003371200846013713</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.466573838886418</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9407627520267609</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.466573838886418</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4741152009.839119</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001477638592563663</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.680366620613079</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8981965111804879</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.680366620613079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7224119419.943099</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003166286766168033</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.058210981247232</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8428841831246475</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.058210981247232</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6477625643.404905</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00359053940458726</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.738669320481743</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7388153757714455</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.738669320481743</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6020190093.948957</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001906566659429766</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.664471258335807</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9170059548381327</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.664471258335807</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5051554199.174295</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003162788301410834</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5321798611007819</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.58817541602304</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.8246610246977419</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.58817541602304</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5826729247.567616</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004839719888041759</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.510672742323889</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9814818647311948</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.510672742323889</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3970714471.771807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004203795384028324</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.509748992376042</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8937253301669721</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.509748992376042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4047926080.076999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002971770930064927</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.049531611217712</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8570493968127842</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.049531611217712</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5982883679.027706</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004150575933260121</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7392550018621066</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.64414873883876</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9706056888040693</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.64414873883876</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5670271282.559209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001349249945274402</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.108768400864844</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9289780216228</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.108768400864844</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4574588844.104868</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003380724441708918</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.489353411217377</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9639541503389414</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.489353411217377</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4411648025.9793</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003746461032871195</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.711216631340006</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9037748742775117</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.711216631340006</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7008856890.911607</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001677423981130496</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.357236771583469</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.8993039681222628</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.357236771583469</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6079742208.725245</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001683604247862239</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.040659029334515</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9503294437923933</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.040659029334515</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11170621584.86294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003433015324104286</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7918919419659172</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.41840375028116</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8454943001529116</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.41840375028116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>10122344397.52597</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002705858795324113</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.508726771759398</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8824249490344386</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.508726771759398</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6047683610.175804</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003024737458798635</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9957953257476537</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.135805858865251</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.127183168562803</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.135805858865251</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5123324802.955375</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003976050004225246</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.469441111044878</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8487905701893007</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.469441111044878</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8250808103.994371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003519604470926546</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5369808100388641</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.467210193048064</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.8528888110259631</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.467210193048064</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4454206327.378917</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005464185153233391</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.405093106584193</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9257048248480585</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.405093106584193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6629998847.968822</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001889949324972141</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.524197557327549</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8356967693271909</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.524197557327549</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5956664614.308559</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00230707076236747</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.606620075905797</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.100298208117251</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.606620075905797</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4176454756.251181</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004120126445974385</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.373859351766324</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8356902026744681</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.373859351766324</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5729959487.206398</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003735549618129668</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.444925714672666</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8880869342651297</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.444925714672666</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4261230331.581051</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002604936509196472</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.627278854141024</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8926017299286957</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.627278854141024</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8390544495.562355</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00444278298726114</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.628041386211753</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8211633015718928</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.628041386211753</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5067200633.164276</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002363027160765399</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.371556223564372</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8235972483267335</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.371556223564372</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7321473400.906719</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004103099639455082</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.553896576739392</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.877864067288882</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.553896576739392</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4648899078.38611</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003204725111410456</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>19</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.27135503637078</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8026085312014709</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.27135503637078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4629647920.746629</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003796984132357935</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>24</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.671550719989737</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.821507096486663</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8587579853446929</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.821507096486663</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5504520821.49953</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00261716865854474</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>17</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8798078640387748</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.100939729973215</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9666339491614431</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.100939729973215</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8373001411.634266</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004295451379037778</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.111857043168483</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.537732857937865</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.111857043168483</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3377759175.669041</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00540151908887327</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.630008131253233</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8744309325583093</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.630008131253233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7174418067.700591</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003638637475520685</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>20</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4075973394068796</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.787912809732077</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6529994009274007</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.787912809732077</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6556992664.778978</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002962719902878388</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.62786750675521</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8903502755943719</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.62786750675521</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5788090207.846422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005694080767191709</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
         <v>13</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.8152010416398882</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.943113418957953</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9372775887635765</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.943113418957953</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5595987410.31509</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002498930541705773</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.204079379105327</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7025960100735261</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.204079379105327</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6732873480.188169</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001173199342306507</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.037003706708354</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9650060478057401</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.037003706708354</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7076333909.243128</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003493642346477069</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.780822012219417</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8858425898799075</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.780822012219417</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3327099521.436926</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003061259022961437</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.710953403125959</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7862031323183515</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.710953403125959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5974945032.155272</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00211009405570384</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.516573308124745</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.029400191577781</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.516573308124745</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7855605599.141468</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009270836552201565</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.836414212951953</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9450375399400009</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.836414212951953</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6233492710.36075</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004825811741377016</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8837767367883947</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.455818947332685</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9667462499349385</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.455818947332685</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6946075197.599861</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00386598864645464</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.602774269238886</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8535164703803008</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.602774269238886</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5569807665.926541</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002140932343777634</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.543065330487604</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9093039291179477</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.543065330487604</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7596773424.164376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005451483164697762</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.127391437026074</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9763813049339662</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.127391437026074</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7969656161.822827</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004482023811980494</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.628231489831864</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9093099641635672</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.628231489831864</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6217295707.863014</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.00244241210230027</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.778189641749619</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9386443665380779</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.778189641749619</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5607379394.478778</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003253336945942021</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.634545961751575</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9418259846714905</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.634545961751575</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7476498698.245017</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00358774331668956</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.320498902475616</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9722669170556574</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.320498902475616</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7529103610.500583</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004971836929387104</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.416432490477471</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8640242818792766</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.416432490477471</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7161589305.138849</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002501759468939508</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.167195470340216</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.810065859231733</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.167195470340216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5587760303.388042</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004602740645136951</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.366534985256764</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9343403290765017</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.366534985256764</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5967483919.110291</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003013051287983964</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.177680228351795</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8767013612816991</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.177680228351795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5541330304.10257</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001694843726364017</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.717466796376463</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9670666890493899</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.717466796376463</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3576137349.825731</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00122340702452524</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.134726580189591</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9407481687765533</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.134726580189591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7808502756.405323</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004559851379163648</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.524963549031354</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8308794258028366</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.524963549031354</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6812163738.282309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004654804635341176</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2580998845409824</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.86337393057851</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.4559865040733107</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.86337393057851</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5258378288.719036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002427520403405729</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>15</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.599996312335481</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.931124292907943</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.599996312335481</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7713149970.212509</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00478537121529591</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.722309175020654</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.7963528069009351</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.722309175020654</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4650574092.056007</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002766429881214304</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.037734303532489</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.042009942658715</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.037734303532489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5817889095.551318</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001682487376984675</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.536944583721578</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9093069466457643</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.536944583721578</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5779388224.39542</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001362208345204335</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.810597575005009</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9886300620667962</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.810597575005009</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7821098088.958049</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002719711141641313</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.69185431069928</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9048906653864354</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.69185431069928</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8869124577.24464</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002496325366527186</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.242777240293629</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8903287029455117</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.242777240293629</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6682149598.24105</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003762070089229287</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.811675888684643</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8801505799388025</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.811675888684643</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5587327371.001092</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004303639092617</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.408262505984976</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8440609651183062</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.408262505984976</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2955170901.931101</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005716721469388697</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>20</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.385953140608441</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8744152430454699</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.385953140608441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5482434362.613094</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002841374171949027</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7207977747541011</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.602357833662145</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8113274479305786</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.602357833662145</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8188034553.69364</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001324856302725806</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>18</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9522047059534603</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.738527664093735</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.035256373004918</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.738527664093735</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_83.xlsx
+++ b/output/fit_clients/fit_round_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9841670407.169775</v>
+        <v>1591644187.409141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003154256679230365</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.1146691540831608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03340619235199356</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>795822034.3541496</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4766888714.958101</v>
+        <v>2573201957.387752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004465817444272851</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
+        <v>0.1233468779977837</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04220708698569329</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1286601107.431108</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6479476341.456854</v>
+        <v>3636495013.36617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003639083935607157</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.153959776921042</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03680493610633629</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>17</v>
+      <c r="I4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1818247495.027191</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3683830635.921276</v>
+        <v>3459486476.168523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003239436335025227</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1071668320348833</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05093322782768006</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1729743277.478484</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6502759703.203631</v>
+        <v>2421085036.033489</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001863700866460505</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
+        <v>0.1362862657239197</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05047195802625178</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1210542501.968765</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7698296288.463758</v>
+        <v>2279805709.3699</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001005597776079317</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>24</v>
+        <v>0.09919632527473711</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04442990441881339</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1139902888.843494</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6266035787.797832</v>
+        <v>3686690371.781471</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0033320168175163</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.1674971317404909</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03212117938447796</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1843345313.51871</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5493815792.466474</v>
+        <v>2224247570.730788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003517178598072855</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26</v>
+        <v>0.1375174242407803</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03117949694346643</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1112123780.773224</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4615832296.601431</v>
+        <v>4528988994.981203</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004057678617990368</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1690584424192942</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05178386219899466</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2264494560.249127</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4240938170.094242</v>
+        <v>3318956705.325202</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001080814123270162</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1845337941734206</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04556849180056354</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1659478317.761134</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6176837519.90954</v>
+        <v>2897535921.981655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002154409903367458</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23</v>
+        <v>0.1329577449206397</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05249967766639351</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1448767969.549647</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5504802560.745814</v>
+        <v>5166838196.964416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003690326109448741</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17</v>
+        <v>0.06343315466438622</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03079404596403891</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2583419094.05998</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6062871294.830852</v>
+        <v>3832780111.752717</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002470937764557312</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
+        <v>0.1146094302617038</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04111219379011119</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1916390029.926198</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5520313903.801735</v>
+        <v>1654892045.892636</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005642162666805517</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.1060364290031252</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03831154767318684</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>827446143.4687418</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5784251452.793949</v>
+        <v>2396767131.040772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004780746622603278</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
+        <v>0.08276445773496151</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03210957101646927</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1198383605.475708</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4683626787.037387</v>
+        <v>4598195826.616693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002790826633321297</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1364960987465301</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04604154483063368</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2299097918.266735</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7100340768.56068</v>
+        <v>3128667764.813589</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001102025760723497</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1356170103230966</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02475187637020508</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>23</v>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1564333903.24231</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4034271406.444248</v>
+        <v>958799390.5441861</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001507688014101802</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1170537900442316</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01959677681236404</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>479399714.3810525</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>3825099470.890601</v>
+        <v>2731220515.405792</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001289727272894164</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1545525566161073</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02807430308638367</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1365610206.079981</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7079764088.258803</v>
+        <v>2539723260.529288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004910651048770258</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.06787543278534985</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04374463182768046</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1269861614.489342</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6120952437.67637</v>
+        <v>2845288722.435588</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005357739728880016</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.09403447298080618</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03963272476749804</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1422644431.931942</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7609076990.919361</v>
+        <v>1430887394.715686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001495520212881804</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1198407207745375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03533482034731647</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>715443694.8595909</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6628142943.176735</v>
+        <v>3452286028.928485</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003414550715422074</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.1136786052490772</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02485194846941241</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>22</v>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1726143019.173234</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5947339146.206563</v>
+        <v>916755860.7456574</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00259958305254198</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18</v>
+        <v>0.07401351210846049</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02227821013485665</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>458378013.4229252</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5734069549.169508</v>
+        <v>1058135685.246632</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0010467299453612</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1091551405263834</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02761478361093687</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>529067828.8727244</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7436489312.930338</v>
+        <v>3292911011.973558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003264457707234943</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1460709414659499</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01900007296963271</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1646455551.176981</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5662341252.615891</v>
+        <v>2573804255.014006</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005393650676578209</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>21</v>
+        <v>0.1191298481153659</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04577788379516123</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1286902101.65354</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5694034985.046099</v>
+        <v>4136540155.630064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001479520727232771</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21</v>
+        <v>0.1399212167729431</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02879228126922103</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2068270085.101482</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5858781818.915745</v>
+        <v>2283331471.49403</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003501261615796029</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1267324004597813</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03466228557668673</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1141665805.424591</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7519586941.600376</v>
+        <v>1486609874.795941</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003371200846013713</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16</v>
+        <v>0.0758097874053308</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03790289402877616</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>743304821.3273408</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4741152009.839119</v>
+        <v>1392975970.094739</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001477638592563663</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.118233262869232</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0337387324251598</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>696488031.1581155</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7224119419.943099</v>
+        <v>2381658781.691995</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003166286766168033</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.1343125165534728</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04141241652340544</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1190829439.049026</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6477625643.404905</v>
+        <v>1239795768.761401</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00359053940458726</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25</v>
+        <v>0.1014166662299883</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01768529213324022</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>619897882.8105849</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6020190093.948957</v>
+        <v>976458367.3163273</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001906566659429766</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>21</v>
+        <v>0.1141410192508822</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03003112623943972</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>488229207.317616</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5051554199.174295</v>
+        <v>2724013097.207425</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003162788301410834</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.1375968218788596</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02242290638458029</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1362006552.534465</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5826729247.567616</v>
+        <v>2005349647.917694</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004839719888041759</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.08521491283893119</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0305883872806268</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1002674851.901127</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3970714471.771807</v>
+        <v>2169695592.143196</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004203795384028324</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1024055417116349</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03100144568501674</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1084847750.646524</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4047926080.076999</v>
+        <v>1385655522.309603</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002971770930064927</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1444253934051362</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03181773740351183</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>692827848.8711096</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5982883679.027706</v>
+        <v>1098135797.233354</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004150575933260121</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1476794933330355</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03798479031458029</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>549067965.337835</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5670271282.559209</v>
+        <v>2576431091.851052</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001349249945274402</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>24</v>
+        <v>0.1586768552573497</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03209007798736145</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1288215563.622599</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4574588844.104868</v>
+        <v>4096023447.161557</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003380724441708918</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1179049063212859</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04476898287296811</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2048011759.394314</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2866938231.236884</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.195893074323357</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02360546445229544</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4411648025.9793</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.003746461032871195</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+      <c r="I43" t="n">
+        <v>29</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1433469127.303151</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7008856890.911607</v>
+        <v>1831917435.536653</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001677423981130496</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>22</v>
+        <v>0.07995234099952704</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03034036608963542</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>915958790.4864379</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6079742208.725245</v>
+        <v>1914082763.662566</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001683604247862239</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1832392066932426</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04220681598054091</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>957041363.9810039</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11170621584.86294</v>
+        <v>4911093750.43284</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003433015324104286</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.1644795513109208</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04416863599454247</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2455546896.863258</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>10122344397.52597</v>
+        <v>3754254737.810527</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002705858795324113</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1985999207921281</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05851159283075809</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1877127354.023485</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3146032133.42141</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.07214242613525081</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03463578339971952</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6047683610.175804</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.003024737458798635</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+      <c r="I48" t="n">
+        <v>28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1573016150.609249</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5123324802.955375</v>
+        <v>1705542279.024994</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003976050004225246</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1538011414522382</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02884978320934793</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>852771139.4939331</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8250808103.994371</v>
+        <v>4096384060.974281</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003519604470926546</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.1486539715941298</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05352671727620523</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2048192012.221279</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4454206327.378917</v>
+        <v>1510085609.922488</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005464185153233391</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1759360075275116</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03922807390806635</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>755042806.1510082</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6629998847.968822</v>
+        <v>4546848591.729696</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001889949324972141</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>20</v>
+        <v>0.1312047881572183</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05204113448929688</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2273424320.078215</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5956664614.308559</v>
+        <v>3439944683.647356</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00230707076236747</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.1317253897232277</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02211911824737451</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1719972343.795571</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4176454756.251181</v>
+        <v>3298847219.877655</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004120126445974385</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+        <v>0.1173820834079388</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04944389021790555</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1649423618.895571</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5729959487.206398</v>
+        <v>4618697354.687657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003735549618129668</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>26</v>
+        <v>0.1458976095496716</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02309595542980739</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2309348679.471899</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4261230331.581051</v>
+        <v>1236978168.080024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002604936509196472</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1567742853154352</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05714479737540398</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>618489165.1751664</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8390544495.562355</v>
+        <v>4024579089.65507</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00444278298726114</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1325047433474928</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02614321915455934</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2012289635.157524</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5067200633.164276</v>
+        <v>1615669222.590923</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002363027160765399</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1988696253621045</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03896659429428948</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>807834631.7872646</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7321473400.906719</v>
+        <v>4093377564.570461</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004103099639455082</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.09145094672346292</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03858308552275135</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2046688753.657461</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4648899078.38611</v>
+        <v>2625918715.812575</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003204725111410456</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.20687333042859</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02362197986438447</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1312959388.943266</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4629647920.746629</v>
+        <v>3342508615.247272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003796984132357935</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>19</v>
+        <v>0.1803806653219435</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02881452520704678</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1671254255.710083</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5504520821.49953</v>
+        <v>1573520430.428068</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00261716865854474</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>14</v>
+        <v>0.1196933990421847</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04116360035751895</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>786760209.2403269</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8373001411.634266</v>
+        <v>4194116538.983956</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004295451379037778</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.100914228613248</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03199664299919759</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2097058323.129879</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3377759175.669041</v>
+        <v>3628013541.431142</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00540151908887327</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1452874622573032</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02413263127373492</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1814006780.323776</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7174418067.700591</v>
+        <v>4751918658.70814</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003638637475520685</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1411307929786353</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02876139440240322</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2375959302.966741</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6556992664.778978</v>
+        <v>5590720586.648927</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002962719902878388</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.153165313202354</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03362028135904131</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2795360352.070099</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5788090207.846422</v>
+        <v>2756008939.574811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005694080767191709</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.08588625498366614</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04255069919249959</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1378004508.593484</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5595987410.31509</v>
+        <v>5624399179.840612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002498930541705773</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>17</v>
+        <v>0.1189893695287264</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03943295372760248</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2812199684.058375</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6732873480.188169</v>
+        <v>1918009614.741231</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001173199342306507</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>19</v>
+        <v>0.1141834868270741</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05985573731856947</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>959004801.668426</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7076333909.243128</v>
+        <v>3286381572.504621</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003493642346477069</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.09560829384680096</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0315604782740912</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1643190781.837302</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3327099521.436926</v>
+        <v>5093672292.354488</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003061259022961437</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1132502927823299</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02207158979967835</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2546836258.800066</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5974945032.155272</v>
+        <v>1426663785.624033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00211009405570384</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.06807937585258877</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03230350463039805</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>713331931.540903</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3021088338.928462</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1032254585308734</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04060155873010306</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7855605599.141468</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.0009270836552201565</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1510544163.419963</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6233492710.36075</v>
+        <v>3401667273.586347</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004825811741377016</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1313249643040656</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03209463304351022</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1700833667.40975</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6946075197.599861</v>
+        <v>1680890100.500014</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00386598864645464</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.1525651042499877</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03577358109731225</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>840445044.321281</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5569807665.926541</v>
+        <v>4142626911.375878</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002140932343777634</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17</v>
+        <v>0.08407349828014718</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02792296086030385</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2071313446.322</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7596773424.164376</v>
+        <v>1673536634.730156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005451483164697762</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1425553332441996</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02015576371090639</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>836768330.5660884</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7969656161.822827</v>
+        <v>4368475817.871207</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004482023811980494</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1226700573710403</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04223637782875067</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2184237848.177166</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6217295707.863014</v>
+        <v>1670265912.723836</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00244241210230027</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1602643386946263</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03222750059791933</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>835133020.2645512</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5607379394.478778</v>
+        <v>3520696153.435328</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003253336945942021</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.07673751297814008</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02475829769606239</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1760348052.274376</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7476498698.245017</v>
+        <v>4774924827.514549</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00358774331668956</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>15</v>
+        <v>0.1092018975879939</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02618862837024298</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2387462405.685946</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7529103610.500583</v>
+        <v>4686772057.306382</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004971836929387104</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.2123447531739854</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0293463888561748</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2343386029.99589</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7161589305.138849</v>
+        <v>2099192411.122867</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002501759468939508</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1546335703076566</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.038353413068444</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1049596203.13521</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5587760303.388042</v>
+        <v>2178835396.248949</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004602740645136951</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.1139794942037512</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04458670714653985</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1089417676.849024</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5967483919.110291</v>
+        <v>2295201586.106356</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003013051287983964</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1762592750057675</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05079726077770216</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1147600775.307932</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5541330304.10257</v>
+        <v>1991088290.119925</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001694843726364017</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>22</v>
+        <v>0.1617579055034511</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02528330265179705</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>995544171.332478</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3576137349.825731</v>
+        <v>970109429.0064754</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00122340702452524</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1653375450789136</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04213730112876565</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>485054711.0547952</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7808502756.405323</v>
+        <v>3545949188.487698</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004559851379163648</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1196851835412448</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03695608772713434</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1772974678.53736</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6812163738.282309</v>
+        <v>2348754908.572829</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004654804635341176</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>18</v>
+        <v>0.1589358008138474</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02943145528997191</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1174377540.049977</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5258378288.719036</v>
+        <v>1774249629.071853</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002427520403405729</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>15</v>
+        <v>0.134723809044853</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05459873202408472</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>887124843.380495</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7713149970.212509</v>
+        <v>1312760592.013495</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00478537121529591</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1952364545770237</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05803282755510316</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>656380359.7672436</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4650574092.056007</v>
+        <v>2678986968.786977</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002766429881214304</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06779234930279104</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02939526800599228</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1339493481.782665</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5817889095.551318</v>
+        <v>3611217060.511963</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001682487376984675</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>28</v>
+        <v>0.123945723046553</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03740224980502893</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1805608555.931994</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5779388224.39542</v>
+        <v>1731907982.084666</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001362208345204335</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>27</v>
+        <v>0.1354838236180476</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03674983761851904</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>865953954.4235425</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7821098088.958049</v>
+        <v>2948365527.303213</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002719711141641313</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>21</v>
+        <v>0.1301792869107915</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04109293560652712</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1474182767.045523</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8869124577.24464</v>
+        <v>1696885065.569458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002496325366527186</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>22</v>
+        <v>0.1010894588333689</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03906270949887477</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>848442552.0387305</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6682149598.24105</v>
+        <v>4831068994.204933</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003762070089229287</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>21</v>
+        <v>0.1424372567138441</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02766825199856289</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2415534620.230259</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5587327371.001092</v>
+        <v>2758342531.996611</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004303639092617</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>31</v>
+        <v>0.119374837718539</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02336058595611164</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1379171234.237381</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2955170901.931101</v>
+        <v>2454769384.291522</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005716721469388697</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1287216797107247</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0335933994286278</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1227384638.489832</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5482434362.613094</v>
+        <v>4259389478.929434</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002841374171949027</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1702500880053089</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02630111701836152</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2129694830.75839</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8188034553.69364</v>
+        <v>2940211630.65978</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001324856302725806</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>27</v>
+        <v>0.1697572681979147</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05812626726820268</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1470105896.433629</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_83.xlsx
+++ b/output/fit_clients/fit_round_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1591644187.409141</v>
+        <v>1849418055.875735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1146691540831608</v>
+        <v>0.09080551065834211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03340619235199356</v>
+        <v>0.03608150143593662</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>795822034.3541496</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2573201957.387752</v>
+        <v>1978409099.440878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1233468779977837</v>
+        <v>0.1733563343363732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04220708698569329</v>
+        <v>0.04190437648028015</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1286601107.431108</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3636495013.36617</v>
+        <v>4566680767.280605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.153959776921042</v>
+        <v>0.114350725761209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03680493610633629</v>
+        <v>0.02522596562455492</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1818247495.027191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3459486476.168523</v>
+        <v>3377546603.329458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1071668320348833</v>
+        <v>0.1070323216319529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05093322782768006</v>
+        <v>0.03698317291985686</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1729743277.478484</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2421085036.033489</v>
+        <v>2735411160.537951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1362862657239197</v>
+        <v>0.09675419768194932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05047195802625178</v>
+        <v>0.05180824775246991</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1210542501.968765</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2279805709.3699</v>
+        <v>1972412990.190544</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09919632527473711</v>
+        <v>0.09669726670065987</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04442990441881339</v>
+        <v>0.04785111000686131</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1139902888.843494</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3686690371.781471</v>
+        <v>3795732440.016122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1674971317404909</v>
+        <v>0.1462745543263003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03212117938447796</v>
+        <v>0.0273076131120133</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1843345313.51871</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2224247570.730788</v>
+        <v>1676802126.256495</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1375174242407803</v>
+        <v>0.1560594354427195</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03117949694346643</v>
+        <v>0.0347396923637977</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1112123780.773224</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4528988994.981203</v>
+        <v>5352256025.074458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1690584424192942</v>
+        <v>0.2012492315161545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05178386219899466</v>
+        <v>0.04864503336111282</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2264494560.249127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3318956705.325202</v>
+        <v>2653994669.106431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1845337941734206</v>
+        <v>0.1318671316665528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04556849180056354</v>
+        <v>0.03369245870749993</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>35</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1659478317.761134</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2897535921.981655</v>
+        <v>3134434965.054124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1329577449206397</v>
+        <v>0.1936852852224779</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05249967766639351</v>
+        <v>0.05289136806866935</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1448767969.549647</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5166838196.964416</v>
+        <v>3507877447.196328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06343315466438622</v>
+        <v>0.09280676682843619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03079404596403891</v>
+        <v>0.01947153799617872</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2583419094.05998</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3832780111.752717</v>
+        <v>3074709292.171604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1146094302617038</v>
+        <v>0.1367570874434019</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04111219379011119</v>
+        <v>0.04209292637453456</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1916390029.926198</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1654892045.892636</v>
+        <v>1114454100.740848</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1060364290031252</v>
+        <v>0.09849203887079905</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03831154767318684</v>
+        <v>0.04440181225135392</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>827446143.4687418</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2396767131.040772</v>
+        <v>2642307436.099321</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08276445773496151</v>
+        <v>0.09063904579919055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03210957101646927</v>
+        <v>0.04155989911804264</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1198383605.475708</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4598195826.616693</v>
+        <v>5284000420.996955</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1364960987465301</v>
+        <v>0.1195415037500251</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04604154483063368</v>
+        <v>0.0475558026179192</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2299097918.266735</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3128667764.813589</v>
+        <v>3624386718.055858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1356170103230966</v>
+        <v>0.1114269451045943</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02475187637020508</v>
+        <v>0.02544858460575007</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1564333903.24231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>958799390.5441861</v>
+        <v>828815353.3501012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1170537900442316</v>
+        <v>0.1699611022663854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01959677681236404</v>
+        <v>0.02050823505940037</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>479399714.3810525</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2731220515.405792</v>
+        <v>2659837316.553734</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1545525566161073</v>
+        <v>0.1347656591257148</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02807430308638367</v>
+        <v>0.02165766950375258</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1365610206.079981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2539723260.529288</v>
+        <v>2374021789.250796</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06787543278534985</v>
+        <v>0.09794094447126589</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04374463182768046</v>
+        <v>0.04206515958926603</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1269861614.489342</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2845288722.435588</v>
+        <v>3844358681.493515</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09403447298080618</v>
+        <v>0.1439660219011672</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03963272476749804</v>
+        <v>0.05714439597663881</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1422644431.931942</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1430887394.715686</v>
+        <v>1062747622.171094</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1198407207745375</v>
+        <v>0.1158469806438858</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03533482034731647</v>
+        <v>0.05395105134277968</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>715443694.8595909</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3452286028.928485</v>
+        <v>2944334950.370536</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1136786052490772</v>
+        <v>0.0912449532233285</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02485194846941241</v>
+        <v>0.03380863423750811</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1726143019.173234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916755860.7456574</v>
+        <v>1399113157.861189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07401351210846049</v>
+        <v>0.1133553075946752</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02227821013485665</v>
+        <v>0.0266432498906927</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458378013.4229252</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1058135685.246632</v>
+        <v>1443837555.712269</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1091551405263834</v>
+        <v>0.08106632688327958</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02761478361093687</v>
+        <v>0.02996171299257687</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>529067828.8727244</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3292911011.973558</v>
+        <v>3749229820.985054</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1460709414659499</v>
+        <v>0.148333721478824</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01900007296963271</v>
+        <v>0.01721354175527902</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1646455551.176981</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2573804255.014006</v>
+        <v>3477329540.282493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1191298481153659</v>
+        <v>0.1431325454188708</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04577788379516123</v>
+        <v>0.03718223704478357</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1286902101.65354</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4136540155.630064</v>
+        <v>5053984150.330583</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1399212167729431</v>
+        <v>0.1450577459451615</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02879228126922103</v>
+        <v>0.04075630114956474</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2068270085.101482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2283331471.49403</v>
+        <v>1560463425.174436</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1267324004597813</v>
+        <v>0.1079274277495372</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03466228557668673</v>
+        <v>0.02442912568602502</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1141665805.424591</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1486609874.795941</v>
+        <v>1496163838.276174</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0758097874053308</v>
+        <v>0.09852463203463672</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03790289402877616</v>
+        <v>0.03327285923042755</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>743304821.3273408</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1392975970.094739</v>
+        <v>1630957909.293941</v>
       </c>
       <c r="F32" t="n">
-        <v>0.118233262869232</v>
+        <v>0.1069588673265074</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0337387324251598</v>
+        <v>0.03175594822478585</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>696488031.1581155</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2381658781.691995</v>
+        <v>2656856678.166341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1343125165534728</v>
+        <v>0.1257415251215859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04141241652340544</v>
+        <v>0.05975140241987064</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1190829439.049026</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1239795768.761401</v>
+        <v>1358285717.241636</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1014166662299883</v>
+        <v>0.0974416717407247</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01768529213324022</v>
+        <v>0.0186237157877885</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>619897882.8105849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>976458367.3163273</v>
+        <v>915766374.2488284</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1141410192508822</v>
+        <v>0.09948634869743196</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03003112623943972</v>
+        <v>0.0363609735358876</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>488229207.317616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2724013097.207425</v>
+        <v>3209849086.920635</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1375968218788596</v>
+        <v>0.1467524980921711</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02242290638458029</v>
+        <v>0.02195490770305712</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>21</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1362006552.534465</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2005349647.917694</v>
+        <v>1787959226.446783</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08521491283893119</v>
+        <v>0.1112209163264923</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0305883872806268</v>
+        <v>0.02879411719465718</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1002674851.901127</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2169695592.143196</v>
+        <v>1856776113.308971</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1024055417116349</v>
+        <v>0.0838872724959504</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03100144568501674</v>
+        <v>0.03662506642136543</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1084847750.646524</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1385655522.309603</v>
+        <v>1852821763.096765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1444253934051362</v>
+        <v>0.181148309865314</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03181773740351183</v>
+        <v>0.03270665952767064</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>692827848.8711096</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1098135797.233354</v>
+        <v>1237891538.845883</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1476794933330355</v>
+        <v>0.1624421359787779</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03798479031458029</v>
+        <v>0.04252196915011927</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>549067965.337835</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2576431091.851052</v>
+        <v>2281512709.576485</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1586768552573497</v>
+        <v>0.142315652240472</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03209007798736145</v>
+        <v>0.03899126180670683</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1288215563.622599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4096023447.161557</v>
+        <v>2902589992.171448</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1179049063212859</v>
+        <v>0.1025760260986</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04476898287296811</v>
+        <v>0.04074591980906801</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2048011759.394314</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2866938231.236884</v>
+        <v>2836273733.431046</v>
       </c>
       <c r="F43" t="n">
-        <v>0.195893074323357</v>
+        <v>0.1550700488062694</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02360546445229544</v>
+        <v>0.02065452223140715</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1433469127.303151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1831917435.536653</v>
+        <v>2348608225.376488</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07995234099952704</v>
+        <v>0.06851300063579059</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03034036608963542</v>
+        <v>0.03105981568332924</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>915958790.4864379</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1914082763.662566</v>
+        <v>1914492882.412541</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1832392066932426</v>
+        <v>0.1355442688536448</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04220681598054091</v>
+        <v>0.04408311496525658</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>957041363.9810039</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4911093750.43284</v>
+        <v>3515631099.149103</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1644795513109208</v>
+        <v>0.1162548760589062</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04416863599454247</v>
+        <v>0.05674584277358523</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2455546896.863258</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3754254737.810527</v>
+        <v>3924578515.954624</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1985999207921281</v>
+        <v>0.1243039493963188</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05851159283075809</v>
+        <v>0.04982859054810236</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>22</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1877127354.023485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3146032133.42141</v>
+        <v>3356357188.369301</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07214242613525081</v>
+        <v>0.07919464468362979</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03463578339971952</v>
+        <v>0.03161228494889091</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>28</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1573016150.609249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1705542279.024994</v>
+        <v>1702732398.157799</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1538011414522382</v>
+        <v>0.1221224338209949</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02884978320934793</v>
+        <v>0.02916303885193675</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>852771139.4939331</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4096384060.974281</v>
+        <v>2881596976.920354</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1486539715941298</v>
+        <v>0.1254369297633071</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05352671727620523</v>
+        <v>0.04610528457327163</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>28</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2048192012.221279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1510085609.922488</v>
+        <v>984268567.631405</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1759360075275116</v>
+        <v>0.1609696792820342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03922807390806635</v>
+        <v>0.04655387517693915</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>755042806.1510082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4546848591.729696</v>
+        <v>4414452877.832637</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1312047881572183</v>
+        <v>0.08808537267982212</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05204113448929688</v>
+        <v>0.05097207169590941</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>34</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2273424320.078215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3439944683.647356</v>
+        <v>2479587890.764384</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1317253897232277</v>
+        <v>0.1264023100433251</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02211911824737451</v>
+        <v>0.02965570668504178</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1719972343.795571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3298847219.877655</v>
+        <v>3519177833.287193</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1173820834079388</v>
+        <v>0.1424616528775301</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04944389021790555</v>
+        <v>0.05212865603987255</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1649423618.895571</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4618697354.687657</v>
+        <v>4373765498.545144</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1458976095496716</v>
+        <v>0.1715057326442029</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02309595542980739</v>
+        <v>0.02659501171402258</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2309348679.471899</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1236978168.080024</v>
+        <v>1389447099.523309</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1567742853154352</v>
+        <v>0.1184867641768</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05714479737540398</v>
+        <v>0.04346944837242372</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>618489165.1751664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4024579089.65507</v>
+        <v>2976363506.17657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1325047433474928</v>
+        <v>0.1579011820567338</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02614321915455934</v>
+        <v>0.02211461856459989</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2012289635.157524</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1615669222.590923</v>
+        <v>1467077317.592334</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1988696253621045</v>
+        <v>0.126524506373409</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03896659429428948</v>
+        <v>0.02665058853296689</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>807834631.7872646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4093377564.570461</v>
+        <v>4143518939.989944</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09145094672346292</v>
+        <v>0.122138093343541</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03858308552275135</v>
+        <v>0.04282381896852014</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2046688753.657461</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2625918715.812575</v>
+        <v>3209171954.969289</v>
       </c>
       <c r="F60" t="n">
-        <v>0.20687333042859</v>
+        <v>0.1924700336884112</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02362197986438447</v>
+        <v>0.02679825155552307</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>25</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1312959388.943266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3342508615.247272</v>
+        <v>2897245797.756315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1803806653219435</v>
+        <v>0.1370306213708566</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02881452520704678</v>
+        <v>0.03211345441299456</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>29</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1671254255.710083</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1573520430.428068</v>
+        <v>1921331134.177891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1196933990421847</v>
+        <v>0.1851977524887088</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04116360035751895</v>
+        <v>0.04448026300034771</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>786760209.2403269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4194116538.983956</v>
+        <v>4633214189.861742</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100914228613248</v>
+        <v>0.09253250179951249</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03199664299919759</v>
+        <v>0.03764138600137384</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2097058323.129879</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3628013541.431142</v>
+        <v>3933967757.013413</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1452874622573032</v>
+        <v>0.1453162536950125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02413263127373492</v>
+        <v>0.02637650598374514</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>26</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1814006780.323776</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4751918658.70814</v>
+        <v>4359423349.63399</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1411307929786353</v>
+        <v>0.1260800742280181</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02876139440240322</v>
+        <v>0.03031839294349742</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>30</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2375959302.966741</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5590720586.648927</v>
+        <v>5063136830.841123</v>
       </c>
       <c r="F66" t="n">
-        <v>0.153165313202354</v>
+        <v>0.1398267030931047</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03362028135904131</v>
+        <v>0.03790181519740323</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>24</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2795360352.070099</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2756008939.574811</v>
+        <v>3424738366.975384</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08588625498366614</v>
+        <v>0.08041678582036407</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04255069919249959</v>
+        <v>0.04761401986790539</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>27</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1378004508.593484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5624399179.840612</v>
+        <v>4580758603.744784</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1189893695287264</v>
+        <v>0.1376629992583081</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03943295372760248</v>
+        <v>0.04099425313310099</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2812199684.058375</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1918009614.741231</v>
+        <v>1665413688.4801</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1141834868270741</v>
+        <v>0.1611157577281424</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05985573731856947</v>
+        <v>0.06024529051263106</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>959004801.668426</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3286381572.504621</v>
+        <v>2672601990.742313</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09560829384680096</v>
+        <v>0.08374275818144336</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0315604782740912</v>
+        <v>0.04619591534889497</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1643190781.837302</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5093672292.354488</v>
+        <v>4916061649.448356</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1132502927823299</v>
+        <v>0.1758489739978863</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02207158979967835</v>
+        <v>0.02828640073145529</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2546836258.800066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1426663785.624033</v>
+        <v>2156493065.766937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06807937585258877</v>
+        <v>0.09377344277160571</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03230350463039805</v>
+        <v>0.04211061490058306</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>713331931.540903</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3021088338.928462</v>
+        <v>2534415645.157968</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1032254585308734</v>
+        <v>0.1073624974033338</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04060155873010306</v>
+        <v>0.03487776316912015</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>31</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1510544163.419963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3401667273.586347</v>
+        <v>3418429289.55702</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1313249643040656</v>
+        <v>0.1648970538468401</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03209463304351022</v>
+        <v>0.03179837837572135</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1700833667.40975</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1680890100.500014</v>
+        <v>1897090043.605144</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1525651042499877</v>
+        <v>0.1449919184182323</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03577358109731225</v>
+        <v>0.02450583411920637</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>840445044.321281</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4142626911.375878</v>
+        <v>5063652113.22813</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08407349828014718</v>
+        <v>0.1205807276560961</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02792296086030385</v>
+        <v>0.03115815294839339</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2071313446.322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1673536634.730156</v>
+        <v>1967276106.957353</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1425553332441996</v>
+        <v>0.1311669935099096</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02015576371090639</v>
+        <v>0.02132539231331336</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>836768330.5660884</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4368475817.871207</v>
+        <v>4555379280.246166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226700573710403</v>
+        <v>0.08842922039565648</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04223637782875067</v>
+        <v>0.05139498232453327</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2184237848.177166</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1670265912.723836</v>
+        <v>1342174581.788676</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1602643386946263</v>
+        <v>0.1356890783360512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03222750059791933</v>
+        <v>0.02820821485058219</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>835133020.2645512</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3520696153.435328</v>
+        <v>5302795118.443007</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07673751297814008</v>
+        <v>0.09090652012604176</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02475829769606239</v>
+        <v>0.02737854198940759</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1760348052.274376</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4774924827.514549</v>
+        <v>3656391095.221381</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1092018975879939</v>
+        <v>0.1005822592036214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02618862837024298</v>
+        <v>0.02569568088548048</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2387462405.685946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4686772057.306382</v>
+        <v>3880870146.664295</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2123447531739854</v>
+        <v>0.1331450189820302</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0293463888561748</v>
+        <v>0.01782684279499743</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2343386029.99589</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2099192411.122867</v>
+        <v>1527595261.575712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1546335703076566</v>
+        <v>0.1155914411861686</v>
       </c>
       <c r="G83" t="n">
-        <v>0.038353413068444</v>
+        <v>0.03893820467781731</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1049596203.13521</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2178835396.248949</v>
+        <v>1574177529.346133</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1139794942037512</v>
+        <v>0.08191682860284955</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04458670714653985</v>
+        <v>0.03435976215073703</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1089417676.849024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2295201586.106356</v>
+        <v>2844927950.241687</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1762592750057675</v>
+        <v>0.1261132370315973</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05079726077770216</v>
+        <v>0.04445074444903438</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1147600775.307932</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1991088290.119925</v>
+        <v>2085212644.190599</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1617579055034511</v>
+        <v>0.1634908672816114</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02528330265179705</v>
+        <v>0.02165704896117968</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>995544171.332478</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>970109429.0064754</v>
+        <v>1226533935.169269</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1653375450789136</v>
+        <v>0.1329678583460785</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04213730112876565</v>
+        <v>0.03032947124117033</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>485054711.0547952</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3545949188.487698</v>
+        <v>2979744211.689151</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1196851835412448</v>
+        <v>0.1525959346945489</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03695608772713434</v>
+        <v>0.02970485132700691</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>32</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1772974678.53736</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2348754908.572829</v>
+        <v>3030505908.779022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1589358008138474</v>
+        <v>0.1408855400208774</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02943145528997191</v>
+        <v>0.04118857954717587</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1174377540.049977</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1774249629.071853</v>
+        <v>1548763231.146356</v>
       </c>
       <c r="F90" t="n">
-        <v>0.134723809044853</v>
+        <v>0.1066310755484443</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05459873202408472</v>
+        <v>0.04142992348620718</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>887124843.380495</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1312760592.013495</v>
+        <v>1973914982.796158</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1952364545770237</v>
+        <v>0.1223984866002414</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05803282755510316</v>
+        <v>0.05983991995572502</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>656380359.7672436</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2678986968.786977</v>
+        <v>2078743584.01722</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06779234930279104</v>
+        <v>0.07428590562524218</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02939526800599228</v>
+        <v>0.03543007183772106</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1339493481.782665</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3611217060.511963</v>
+        <v>4315998967.833286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.123945723046553</v>
+        <v>0.08754355374865967</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03740224980502893</v>
+        <v>0.04940549544037264</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>24</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1805608555.931994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1731907982.084666</v>
+        <v>1975305562.246766</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1354838236180476</v>
+        <v>0.1096257288832002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03674983761851904</v>
+        <v>0.03543975943280767</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>865953954.4235425</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2948365527.303213</v>
+        <v>3141381925.680492</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1301792869107915</v>
+        <v>0.1188359637902798</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04109293560652712</v>
+        <v>0.03734150285304074</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1474182767.045523</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1696885065.569458</v>
+        <v>1595417385.815657</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1010894588333689</v>
+        <v>0.1307676437529515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03906270949887477</v>
+        <v>0.02864549435860279</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>848442552.0387305</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4831068994.204933</v>
+        <v>3380227883.870339</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1424372567138441</v>
+        <v>0.1128634816512423</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02766825199856289</v>
+        <v>0.0248906652543782</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>27</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2415534620.230259</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2758342531.996611</v>
+        <v>3529629621.719371</v>
       </c>
       <c r="F98" t="n">
-        <v>0.119374837718539</v>
+        <v>0.1109927013241151</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02336058595611164</v>
+        <v>0.02010423823580138</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>22</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1379171234.237381</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2454769384.291522</v>
+        <v>2579976128.925135</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1287216797107247</v>
+        <v>0.1199380253747109</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0335933994286278</v>
+        <v>0.02708023626560884</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1227384638.489832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4259389478.929434</v>
+        <v>3347952275.517594</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1702500880053089</v>
+        <v>0.1503634451275549</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02630111701836152</v>
+        <v>0.02332343408942254</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>25</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2129694830.75839</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2940211630.65978</v>
+        <v>2284903442.699745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1697572681979147</v>
+        <v>0.1586869626330679</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05812626726820268</v>
+        <v>0.04046972201688792</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1470105896.433629</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_83.xlsx
+++ b/output/fit_clients/fit_round_83.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1849418055.875735</v>
+        <v>2160728521.017994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09080551065834211</v>
+        <v>0.07925696942830814</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03608150143593662</v>
+        <v>0.04099723796372252</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1978409099.440878</v>
+        <v>2365693257.816443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1733563343363732</v>
+        <v>0.1150966392462866</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04190437648028015</v>
+        <v>0.04753280815287192</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4566680767.280605</v>
+        <v>4331819780.31227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.114350725761209</v>
+        <v>0.1527953466165247</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02522596562455492</v>
+        <v>0.02791663713156487</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3377546603.329458</v>
+        <v>3184353663.592617</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070323216319529</v>
+        <v>0.07833709447666784</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03698317291985686</v>
+        <v>0.04072132012580679</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2735411160.537951</v>
+        <v>2692237527.576839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09675419768194932</v>
+        <v>0.116654744365869</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05180824775246991</v>
+        <v>0.04040856800166354</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1972412990.190544</v>
+        <v>2055506404.843646</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09669726670065987</v>
+        <v>0.09253567362753451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04785111000686131</v>
+        <v>0.0353543996743574</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3795732440.016122</v>
+        <v>2795298975.188286</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1462745543263003</v>
+        <v>0.2053366454928388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0273076131120133</v>
+        <v>0.02225710471570531</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1676802126.256495</v>
+        <v>1465339127.937183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1560594354427195</v>
+        <v>0.129619876550494</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0347396923637977</v>
+        <v>0.03385554984414692</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5352256025.074458</v>
+        <v>5701965705.085355</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2012492315161545</v>
+        <v>0.2155964693241805</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04864503336111282</v>
+        <v>0.03881493459721696</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2653994669.106431</v>
+        <v>3251616322.211636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1318671316665528</v>
+        <v>0.1694478248283686</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03369245870749993</v>
+        <v>0.0328034150090387</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3134434965.054124</v>
+        <v>2270516908.944732</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1936852852224779</v>
+        <v>0.1229169169559769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05289136806866935</v>
+        <v>0.044889258207033</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3507877447.196328</v>
+        <v>4007489573.288822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09280676682843619</v>
+        <v>0.06516899177227216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01947153799617872</v>
+        <v>0.02920683662179491</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3074709292.171604</v>
+        <v>2524653038.499564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1367570874434019</v>
+        <v>0.1192296738185438</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04209292637453456</v>
+        <v>0.03874546417755066</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1114454100.740848</v>
+        <v>1327776066.912969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09849203887079905</v>
+        <v>0.07379393832166248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04440181225135392</v>
+        <v>0.04138247642220539</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2642307436.099321</v>
+        <v>2550956202.878066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09063904579919055</v>
+        <v>0.08740317622649649</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04155989911804264</v>
+        <v>0.0483517067773206</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5284000420.996955</v>
+        <v>4781894530.055336</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1195415037500251</v>
+        <v>0.1384274570857525</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0475558026179192</v>
+        <v>0.03449109511220365</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3624386718.055858</v>
+        <v>3513316305.345264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1114269451045943</v>
+        <v>0.1285185006017588</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02544858460575007</v>
+        <v>0.02116743980966563</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828815353.3501012</v>
+        <v>865931736.203097</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1699611022663854</v>
+        <v>0.1233292153365331</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02050823505940037</v>
+        <v>0.0259654429920732</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2659837316.553734</v>
+        <v>2753026298.082962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1347656591257148</v>
+        <v>0.1172862321308311</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02165766950375258</v>
+        <v>0.02620649894253945</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2374021789.250796</v>
+        <v>1793462356.017521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09794094447126589</v>
+        <v>0.06962307629388788</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04206515958926603</v>
+        <v>0.04501982340020489</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3844358681.493515</v>
+        <v>3039100397.680408</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1439660219011672</v>
+        <v>0.1005808018905499</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05714439597663881</v>
+        <v>0.05367070672242055</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1062747622.171094</v>
+        <v>1476140469.667267</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1158469806438858</v>
+        <v>0.1613293676265608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05395105134277968</v>
+        <v>0.04269978362068619</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2944334950.370536</v>
+        <v>2618514025.249406</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0912449532233285</v>
+        <v>0.1488058176764296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03380863423750811</v>
+        <v>0.02543660396344707</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1399113157.861189</v>
+        <v>1122482344.171635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1133553075946752</v>
+        <v>0.1063523705979757</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0266432498906927</v>
+        <v>0.02980247086879348</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1443837555.712269</v>
+        <v>905770589.3641279</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08106632688327958</v>
+        <v>0.08058820440215965</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02996171299257687</v>
+        <v>0.0348901529813531</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3749229820.985054</v>
+        <v>2947154100.643685</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148333721478824</v>
+        <v>0.1304507488107786</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01721354175527902</v>
+        <v>0.02470867921065289</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3477329540.282493</v>
+        <v>3178585023.293326</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431325454188708</v>
+        <v>0.09532503274970199</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03718223704478357</v>
+        <v>0.03957954775668341</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5053984150.330583</v>
+        <v>4240832727.142828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1450577459451615</v>
+        <v>0.1140057951496657</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04075630114956474</v>
+        <v>0.03104531465837118</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1560463425.174436</v>
+        <v>2159127211.020134</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079274277495372</v>
+        <v>0.103560066146682</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02442912568602502</v>
+        <v>0.03779422063495832</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1496163838.276174</v>
+        <v>1022771207.877036</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09852463203463672</v>
+        <v>0.0683575755078077</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03327285923042755</v>
+        <v>0.05170210131720347</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1630957909.293941</v>
+        <v>1521735963.902096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1069588673265074</v>
+        <v>0.07616055028813803</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03175594822478585</v>
+        <v>0.02689828047898256</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2656856678.166341</v>
+        <v>2904935354.169762</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1257415251215859</v>
+        <v>0.2054593313910423</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05975140241987064</v>
+        <v>0.05796568770953103</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1358285717.241636</v>
+        <v>1320638038.320803</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0974416717407247</v>
+        <v>0.08517973964586506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0186237157877885</v>
+        <v>0.02217101542222135</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>915766374.2488284</v>
+        <v>869418279.6791183</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09948634869743196</v>
+        <v>0.1033316868094051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0363609735358876</v>
+        <v>0.04115452296522198</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3209849086.920635</v>
+        <v>2583440386.995503</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1467524980921711</v>
+        <v>0.1739463817413434</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02195490770305712</v>
+        <v>0.02267439660399478</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1787959226.446783</v>
+        <v>2150137516.384637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1112209163264923</v>
+        <v>0.06967485924643795</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02879411719465718</v>
+        <v>0.02995787933326254</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1856776113.308971</v>
+        <v>1666343443.944638</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0838872724959504</v>
+        <v>0.1016845028250678</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03662506642136543</v>
+        <v>0.02513663841526083</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1852821763.096765</v>
+        <v>2110934988.694713</v>
       </c>
       <c r="F39" t="n">
-        <v>0.181148309865314</v>
+        <v>0.1635075295305468</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03270665952767064</v>
+        <v>0.02114830961330052</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1237891538.845883</v>
+        <v>1161187574.320587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1624421359787779</v>
+        <v>0.1273160087933344</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04252196915011927</v>
+        <v>0.03858583724342027</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2281512709.576485</v>
+        <v>2899616298.505305</v>
       </c>
       <c r="F41" t="n">
-        <v>0.142315652240472</v>
+        <v>0.1485241596107189</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03899126180670683</v>
+        <v>0.0303066070751275</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2902589992.171448</v>
+        <v>2964125003.177087</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1025760260986</v>
+        <v>0.1029386418866581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04074591980906801</v>
+        <v>0.04460275449249741</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2836273733.431046</v>
+        <v>2085303002.197255</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550700488062694</v>
+        <v>0.2036963339569024</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02065452223140715</v>
+        <v>0.02523104154260751</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2348608225.376488</v>
+        <v>1976511568.869658</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06851300063579059</v>
+        <v>0.0644603191320927</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03105981568332924</v>
+        <v>0.03356193982018083</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1914492882.412541</v>
+        <v>1702655483.882374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1355442688536448</v>
+        <v>0.1485013420879787</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04408311496525658</v>
+        <v>0.04831006714504524</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3515631099.149103</v>
+        <v>4505999041.681273</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1162548760589062</v>
+        <v>0.1691934571250293</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05674584277358523</v>
+        <v>0.05306129408459255</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3924578515.954624</v>
+        <v>5184957000.026107</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1243039493963188</v>
+        <v>0.1611484510223485</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04982859054810236</v>
+        <v>0.03607263519237795</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3356357188.369301</v>
+        <v>4157135665.45764</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07919464468362979</v>
+        <v>0.07772962133403175</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03161228494889091</v>
+        <v>0.02948743622621955</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1702732398.157799</v>
+        <v>1323782065.826233</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1221224338209949</v>
+        <v>0.1226464366257478</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02916303885193675</v>
+        <v>0.04211687395023442</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2881596976.920354</v>
+        <v>3606018528.11995</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1254369297633071</v>
+        <v>0.1511898693721505</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04610528457327163</v>
+        <v>0.03870264146480605</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>984268567.631405</v>
+        <v>1537981497.55479</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1609696792820342</v>
+        <v>0.1855858615372993</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04655387517693915</v>
+        <v>0.04900052208493913</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4414452877.832637</v>
+        <v>4252242310.811503</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08808537267982212</v>
+        <v>0.1251757709251679</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05097207169590941</v>
+        <v>0.04209236235666643</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2479587890.764384</v>
+        <v>3744947898.891649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1264023100433251</v>
+        <v>0.1910968035838775</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02965570668504178</v>
+        <v>0.02212816481334049</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3519177833.287193</v>
+        <v>4868033269.622439</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1424616528775301</v>
+        <v>0.1332848231203086</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05212865603987255</v>
+        <v>0.04085312558273366</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4373765498.545144</v>
+        <v>3839748198.51805</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1715057326442029</v>
+        <v>0.149984059380587</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02659501171402258</v>
+        <v>0.02864321858749444</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1389447099.523309</v>
+        <v>1628604077.122905</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1184867641768</v>
+        <v>0.1509789051102169</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04346944837242372</v>
+        <v>0.05424634264261348</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2976363506.17657</v>
+        <v>4398929988.709995</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1579011820567338</v>
+        <v>0.142605251271412</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02211461856459989</v>
+        <v>0.02451662579943003</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1467077317.592334</v>
+        <v>1810564723.064018</v>
       </c>
       <c r="F58" t="n">
-        <v>0.126524506373409</v>
+        <v>0.1597125846593296</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02665058853296689</v>
+        <v>0.03934095320640003</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4143518939.989944</v>
+        <v>4436719103.34926</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122138093343541</v>
+        <v>0.09009770749634285</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04282381896852014</v>
+        <v>0.04698133028265179</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3209171954.969289</v>
+        <v>3608801534.68974</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1924700336884112</v>
+        <v>0.1618533015894443</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02679825155552307</v>
+        <v>0.02064210317724363</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2897245797.756315</v>
+        <v>2685575228.152277</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1370306213708566</v>
+        <v>0.1212672312933812</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03211345441299456</v>
+        <v>0.02406308583000942</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1921331134.177891</v>
+        <v>2015383329.495337</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1851977524887088</v>
+        <v>0.1398959117081578</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04448026300034771</v>
+        <v>0.03008988249901021</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4633214189.861742</v>
+        <v>5052605961.231508</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09253250179951249</v>
+        <v>0.1025139067599432</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03764138600137384</v>
+        <v>0.04158529150477193</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3933967757.013413</v>
+        <v>3757998788.455171</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1453162536950125</v>
+        <v>0.1644947204572376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02637650598374514</v>
+        <v>0.02538336053642417</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4359423349.63399</v>
+        <v>5145624178.522843</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1260800742280181</v>
+        <v>0.1465884749694338</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03031839294349742</v>
+        <v>0.02168722728509528</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5063136830.841123</v>
+        <v>5719359738.404616</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1398267030931047</v>
+        <v>0.1120854414554144</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03790181519740323</v>
+        <v>0.03471132081579468</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3424738366.975384</v>
+        <v>2395655375.823648</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08041678582036407</v>
+        <v>0.0774432330623562</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04761401986790539</v>
+        <v>0.04777049067480422</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4580758603.744784</v>
+        <v>4811443845.49965</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1376629992583081</v>
+        <v>0.1483562292006247</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04099425313310099</v>
+        <v>0.04798376833453872</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1665413688.4801</v>
+        <v>2326180308.926044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1611157577281424</v>
+        <v>0.1745523375559941</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06024529051263106</v>
+        <v>0.05684529571280107</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2672601990.742313</v>
+        <v>2571070633.504372</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08374275818144336</v>
+        <v>0.07723099443500442</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04619591534889497</v>
+        <v>0.03075528611115026</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4916061649.448356</v>
+        <v>4571208954.263489</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1758489739978863</v>
+        <v>0.1522080687937853</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02828640073145529</v>
+        <v>0.02951033605688329</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2156493065.766937</v>
+        <v>1876463904.679318</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09377344277160571</v>
+        <v>0.09433531558148514</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04211061490058306</v>
+        <v>0.04801914920852231</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2534415645.157968</v>
+        <v>2438242573.228851</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1073624974033338</v>
+        <v>0.1043754193874048</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03487776316912015</v>
+        <v>0.03321224061630264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3418429289.55702</v>
+        <v>3940165633.519862</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1648970538468401</v>
+        <v>0.1219622348673741</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03179837837572135</v>
+        <v>0.03404355757818241</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1897090043.605144</v>
+        <v>1551398473.462345</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1449919184182323</v>
+        <v>0.11551499023495</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02450583411920637</v>
+        <v>0.03213665699459872</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5063652113.22813</v>
+        <v>4212566073.534228</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1205807276560961</v>
+        <v>0.1168177931121026</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03115815294839339</v>
+        <v>0.02363526149292374</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1967276106.957353</v>
+        <v>1907032572.461965</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1311669935099096</v>
+        <v>0.1613810319337781</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02132539231331336</v>
+        <v>0.02834627939426109</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4555379280.246166</v>
+        <v>4297046561.092831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08842922039565648</v>
+        <v>0.1187842699300087</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05139498232453327</v>
+        <v>0.05000893156234784</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1342174581.788676</v>
+        <v>1278754725.191178</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1356890783360512</v>
+        <v>0.109898986396725</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02820821485058219</v>
+        <v>0.03675813723420795</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5302795118.443007</v>
+        <v>4415382130.805529</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09090652012604176</v>
+        <v>0.09360958391817886</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02737854198940759</v>
+        <v>0.03299689289402563</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3656391095.221381</v>
+        <v>4311913036.800639</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1005822592036214</v>
+        <v>0.08316360864313618</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02569568088548048</v>
+        <v>0.02853369597470441</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3880870146.664295</v>
+        <v>3905593914.489848</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1331450189820302</v>
+        <v>0.135655461502153</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01782684279499743</v>
+        <v>0.02415838688544932</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1527595261.575712</v>
+        <v>2275218808.765924</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1155914411861686</v>
+        <v>0.1154689346496646</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03893820467781731</v>
+        <v>0.0348381132112654</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1574177529.346133</v>
+        <v>2499998717.78087</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08191682860284955</v>
+        <v>0.08377853076202595</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03435976215073703</v>
+        <v>0.04622782820131492</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2844927950.241687</v>
+        <v>3641557434.317635</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1261132370315973</v>
+        <v>0.1407644146614197</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04445074444903438</v>
+        <v>0.04921311958738106</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2085212644.190599</v>
+        <v>1980966149.37866</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1634908672816114</v>
+        <v>0.1676926496697591</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02165704896117968</v>
+        <v>0.02264319681572772</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1226533935.169269</v>
+        <v>1178510568.184312</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1329678583460785</v>
+        <v>0.1777334654051354</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03032947124117033</v>
+        <v>0.03609001566414736</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2979744211.689151</v>
+        <v>2557962341.581609</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1525959346945489</v>
+        <v>0.1720585556229335</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02970485132700691</v>
+        <v>0.03944646375002038</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3030505908.779022</v>
+        <v>3090442305.545625</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1408855400208774</v>
+        <v>0.1415918336058653</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04118857954717587</v>
+        <v>0.03834361707170272</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1548763231.146356</v>
+        <v>2152672043.634315</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1066310755484443</v>
+        <v>0.102278435302147</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04142992348620718</v>
+        <v>0.03913634347190965</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1973914982.796158</v>
+        <v>1923159971.134851</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1223984866002414</v>
+        <v>0.118506027883786</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05983991995572502</v>
+        <v>0.03863176560444613</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2078743584.01722</v>
+        <v>1875847971.527969</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07428590562524218</v>
+        <v>0.08236694543315229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03543007183772106</v>
+        <v>0.03024236382594486</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4315998967.833286</v>
+        <v>5020836287.101697</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08754355374865967</v>
+        <v>0.1327529750724935</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04940549544037264</v>
+        <v>0.05241787407003021</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1975305562.246766</v>
+        <v>2053263888.576993</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1096257288832002</v>
+        <v>0.1027981580623312</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03543975943280767</v>
+        <v>0.02802688081044755</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3141381925.680492</v>
+        <v>2370116907.46181</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1188359637902798</v>
+        <v>0.1280818182921437</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03734150285304074</v>
+        <v>0.0385205236063948</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1595417385.815657</v>
+        <v>2322857542.714741</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1307676437529515</v>
+        <v>0.1262636227179623</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02864549435860279</v>
+        <v>0.034152126875761</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3380227883.870339</v>
+        <v>4606649400.136579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1128634816512423</v>
+        <v>0.1574973589648871</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0248906652543782</v>
+        <v>0.02528664596115958</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3529629621.719371</v>
+        <v>3664632648.807291</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1109927013241151</v>
+        <v>0.1138767581878759</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02010423823580138</v>
+        <v>0.02620497390462318</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2579976128.925135</v>
+        <v>2138382062.902425</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1199380253747109</v>
+        <v>0.1261456249966755</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02708023626560884</v>
+        <v>0.03440766842195572</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3347952275.517594</v>
+        <v>3855586783.673265</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1503634451275549</v>
+        <v>0.134058939406666</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02332343408942254</v>
+        <v>0.02376503179922695</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2284903442.699745</v>
+        <v>2250337401.175697</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1586869626330679</v>
+        <v>0.1473100090805885</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04046972201688792</v>
+        <v>0.03738499386871245</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_83.xlsx
+++ b/output/fit_clients/fit_round_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2160728521.017994</v>
+        <v>1677869552.536587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07925696942830814</v>
+        <v>0.08901085172631004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04099723796372252</v>
+        <v>0.02836099768868663</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2365693257.816443</v>
+        <v>1640089072.480808</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1150966392462866</v>
+        <v>0.1192718824965067</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04753280815287192</v>
+        <v>0.04574282532149014</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4331819780.31227</v>
+        <v>3585730879.613602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1527953466165247</v>
+        <v>0.1188836744934789</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02791663713156487</v>
+        <v>0.02834736398835136</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3184353663.592617</v>
+        <v>3715339108.40191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07833709447666784</v>
+        <v>0.06755743772996316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04072132012580679</v>
+        <v>0.03680057956042108</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2692237527.576839</v>
+        <v>2096794514.354947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.116654744365869</v>
+        <v>0.1424295447797286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04040856800166354</v>
+        <v>0.04689634045560252</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2055506404.843646</v>
+        <v>2346615211.179105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09253567362753451</v>
+        <v>0.08882441585089018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0353543996743574</v>
+        <v>0.04818863807356576</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2795298975.188286</v>
+        <v>3954221052.45541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2053366454928388</v>
+        <v>0.2086157073336852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02225710471570531</v>
+        <v>0.02346254656801624</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21</v>
+      </c>
+      <c r="J8" t="n">
+        <v>83</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1465339127.937183</v>
+        <v>1784853404.227569</v>
       </c>
       <c r="F9" t="n">
-        <v>0.129619876550494</v>
+        <v>0.1675680526103234</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03385554984414692</v>
+        <v>0.02820750845910144</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5701965705.085355</v>
+        <v>5018447345.798431</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2155964693241805</v>
+        <v>0.2141147248706731</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03881493459721696</v>
+        <v>0.03961013382841188</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77</v>
+      </c>
+      <c r="J10" t="n">
+        <v>83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>196.9440913815498</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3251616322.211636</v>
+        <v>3071447769.857686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1694478248283686</v>
+        <v>0.185694190943461</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0328034150090387</v>
+        <v>0.03227538807601318</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>131.5243333011528</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2270516908.944732</v>
+        <v>2614936005.096975</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1229169169559769</v>
+        <v>0.1886917504369415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.044889258207033</v>
+        <v>0.03982635098053439</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4007489573.288822</v>
+        <v>3300049241.798961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06516899177227216</v>
+        <v>0.06218042370271749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02920683662179491</v>
+        <v>0.0217824928486671</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2524653038.499564</v>
+        <v>2385941988.75889</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1192296738185438</v>
+        <v>0.1339403274077878</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03874546417755066</v>
+        <v>0.03494530679923873</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1327776066.912969</v>
+        <v>1827808826.42655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07379393832166248</v>
+        <v>0.07604255796243919</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04138247642220539</v>
+        <v>0.04474500031739363</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2550956202.878066</v>
+        <v>2457390262.269194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08740317622649649</v>
+        <v>0.09601743632059657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0483517067773206</v>
+        <v>0.04871794049461363</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4781894530.055336</v>
+        <v>3740655055.459858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1384274570857525</v>
+        <v>0.1370177196227279</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03449109511220365</v>
+        <v>0.04483308902660133</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="n">
+        <v>82</v>
+      </c>
+      <c r="K17" t="n">
+        <v>156.9300272373631</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3513316305.345264</v>
+        <v>3874512941.421165</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1285185006017588</v>
+        <v>0.1479275800316124</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02116743980966563</v>
+        <v>0.02274067860661425</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>82</v>
+      </c>
+      <c r="K18" t="n">
+        <v>170.2289586847859</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>865931736.203097</v>
+        <v>1257525382.154926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1233292153365331</v>
+        <v>0.1338408430953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0259654429920732</v>
+        <v>0.0211002610579848</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2753026298.082962</v>
+        <v>2176748815.77018</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1172862321308311</v>
+        <v>0.1536224541004009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02620649894253945</v>
+        <v>0.02673054001868116</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1793462356.017521</v>
+        <v>2600918557.419142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06962307629388788</v>
+        <v>0.0629656426296996</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04501982340020489</v>
+        <v>0.03986203468176528</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3039100397.680408</v>
+        <v>3599497231.116768</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005808018905499</v>
+        <v>0.08979532640380178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05367070672242055</v>
+        <v>0.05240059556769814</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1476140469.667267</v>
+        <v>1326840959.724173</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1613293676265608</v>
+        <v>0.1324596671355057</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04269978362068619</v>
+        <v>0.04068592967852901</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2618514025.249406</v>
+        <v>3633541660.595557</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488058176764296</v>
+        <v>0.1471507594604756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02543660396344707</v>
+        <v>0.03350482190451626</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="n">
+        <v>156.1457796513039</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1122482344.171635</v>
+        <v>1421013039.21586</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1063523705979757</v>
+        <v>0.08718457010013689</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02980247086879348</v>
+        <v>0.02889115218518607</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>905770589.3641279</v>
+        <v>1213297394.488073</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08058820440215965</v>
+        <v>0.1134193393294489</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0348901529813531</v>
+        <v>0.03886585469973333</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2947154100.643685</v>
+        <v>3057994105.339938</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1304507488107786</v>
+        <v>0.1362703986360108</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02470867921065289</v>
+        <v>0.02233137264743631</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>81</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3178585023.293326</v>
+        <v>3458706538.033042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09532503274970199</v>
+        <v>0.147725533112128</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03957954775668341</v>
+        <v>0.0489987815207786</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4240832727.142828</v>
+        <v>3613520265.573404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1140057951496657</v>
+        <v>0.1264242613863029</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03104531465837118</v>
+        <v>0.03035136287605015</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>77</v>
+      </c>
+      <c r="J29" t="n">
+        <v>83</v>
+      </c>
+      <c r="K29" t="n">
+        <v>193.5323573546848</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2159127211.020134</v>
+        <v>2092497205.386089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.103560066146682</v>
+        <v>0.1264228929825893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03779422063495832</v>
+        <v>0.03380591571602541</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022771207.877036</v>
+        <v>1225077204.43497</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0683575755078077</v>
+        <v>0.07775270942966189</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05170210131720347</v>
+        <v>0.04467201593748862</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1521735963.902096</v>
+        <v>1331232859.426557</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07616055028813803</v>
+        <v>0.1015088569490607</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02689828047898256</v>
+        <v>0.0248209400112149</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2904935354.169762</v>
+        <v>2633780101.232032</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2054593313910423</v>
+        <v>0.1724853654064427</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05796568770953103</v>
+        <v>0.03939651344366855</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1320638038.320803</v>
+        <v>1311172320.27442</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08517973964586506</v>
+        <v>0.08836692746700117</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02217101542222135</v>
+        <v>0.01946178600456244</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>869418279.6791183</v>
+        <v>1107675427.792026</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1033316868094051</v>
+        <v>0.1120590541404906</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04115452296522198</v>
+        <v>0.03376598176022174</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2583440386.995503</v>
+        <v>2621198472.854997</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1739463817413434</v>
+        <v>0.1563153250003841</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02267439660399478</v>
+        <v>0.02166572537423936</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2150137516.384637</v>
+        <v>2927270495.915703</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06967485924643795</v>
+        <v>0.08871565921096992</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02995787933326254</v>
+        <v>0.04190790065061879</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1666343443.944638</v>
+        <v>2181262658.34889</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1016845028250678</v>
+        <v>0.08374059535222235</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02513663841526083</v>
+        <v>0.03136727984786387</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2110934988.694713</v>
+        <v>2178811070.793741</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1635075295305468</v>
+        <v>0.1744734589729821</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02114830961330052</v>
+        <v>0.02612161231786286</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1161187574.320587</v>
+        <v>1532815376.927604</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273160087933344</v>
+        <v>0.1130868969866308</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03858583724342027</v>
+        <v>0.04645674957861961</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2899616298.505305</v>
+        <v>1826270129.721061</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1485241596107189</v>
+        <v>0.151229959658248</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0303066070751275</v>
+        <v>0.03899196310579468</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2964125003.177087</v>
+        <v>4069630843.160964</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1029386418866581</v>
+        <v>0.1233890120248009</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04460275449249741</v>
+        <v>0.0335245716572229</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>83</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2085303002.197255</v>
+        <v>2907430459.182423</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2036963339569024</v>
+        <v>0.1728475954595167</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02523104154260751</v>
+        <v>0.02545492031710603</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1976511568.869658</v>
+        <v>1754668682.035937</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0644603191320927</v>
+        <v>0.07882452048317454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03356193982018083</v>
+        <v>0.02260199167425498</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1702655483.882374</v>
+        <v>2317269580.52776</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1485013420879787</v>
+        <v>0.1282807402094708</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04831006714504524</v>
+        <v>0.03699531863348139</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4505999041.681273</v>
+        <v>3457629006.99215</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1691934571250293</v>
+        <v>0.1252189830087755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05306129408459255</v>
+        <v>0.05768501687759834</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>48</v>
+      </c>
+      <c r="J46" t="n">
+        <v>82</v>
+      </c>
+      <c r="K46" t="n">
+        <v>149.5535800470745</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5184957000.026107</v>
+        <v>4513189056.748011</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1611484510223485</v>
+        <v>0.1966066580749702</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03607263519237795</v>
+        <v>0.05046672082512258</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>37</v>
+      </c>
+      <c r="J47" t="n">
+        <v>83</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4157135665.45764</v>
+        <v>2983696612.244579</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07772962133403175</v>
+        <v>0.09416037064204077</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02948743622621955</v>
+        <v>0.02728410366399381</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" t="n">
+        <v>82</v>
+      </c>
+      <c r="K48" t="n">
+        <v>114.4797146485737</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1323782065.826233</v>
+        <v>1249377743.382451</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1226464366257478</v>
+        <v>0.1856544282944831</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04211687395023442</v>
+        <v>0.0360899395347165</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3606018528.11995</v>
+        <v>3302950274.674288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1511898693721505</v>
+        <v>0.1608589715365533</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03870264146480605</v>
+        <v>0.05057338312214945</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82</v>
+      </c>
+      <c r="K50" t="n">
+        <v>137.7615059918276</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1537981497.55479</v>
+        <v>1136069992.538258</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1855858615372993</v>
+        <v>0.1220350225286962</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04900052208493913</v>
+        <v>0.05243674614019223</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4252242310.811503</v>
+        <v>3763942656.496703</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1251757709251679</v>
+        <v>0.1112573221473018</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04209236235666643</v>
+        <v>0.04837665824398971</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>64</v>
+      </c>
+      <c r="J52" t="n">
+        <v>83</v>
+      </c>
+      <c r="K52" t="n">
+        <v>185.6595202301887</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3744947898.891649</v>
+        <v>2287472467.46432</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1910968035838775</v>
+        <v>0.1397493025862325</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02212816481334049</v>
+        <v>0.02965765506947375</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>82</v>
+      </c>
+      <c r="K53" t="n">
+        <v>61.60525916013535</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868033269.622439</v>
+        <v>3953447070.829213</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1332848231203086</v>
+        <v>0.1224868476236621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04085312558273366</v>
+        <v>0.04919561141685656</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>37</v>
+      </c>
+      <c r="J54" t="n">
+        <v>83</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3839748198.51805</v>
+        <v>3156185271.401296</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149984059380587</v>
+        <v>0.2007829104117219</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02864321858749444</v>
+        <v>0.02929698679615529</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>38</v>
+      </c>
+      <c r="J55" t="n">
+        <v>82</v>
+      </c>
+      <c r="K55" t="n">
+        <v>112.5045345543489</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1628604077.122905</v>
+        <v>1424428669.953</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509789051102169</v>
+        <v>0.1628336013656309</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05424634264261348</v>
+        <v>0.0456515386280265</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4398929988.709995</v>
+        <v>3630384988.736781</v>
       </c>
       <c r="F57" t="n">
-        <v>0.142605251271412</v>
+        <v>0.1191749529958942</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02451662579943003</v>
+        <v>0.01910270929497287</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>83</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1810564723.064018</v>
+        <v>1189308974.485108</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1597125846593296</v>
+        <v>0.1539093140945554</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03934095320640003</v>
+        <v>0.02954671658058203</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4436719103.34926</v>
+        <v>4943424804.631375</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09009770749634285</v>
+        <v>0.1022884187265619</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04698133028265179</v>
+        <v>0.04476971580531373</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>40</v>
+      </c>
+      <c r="J59" t="n">
+        <v>83</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3608801534.68974</v>
+        <v>3633344362.741198</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1618533015894443</v>
+        <v>0.1305477203676438</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02064210317724363</v>
+        <v>0.0303842433332649</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>83</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2685575228.152277</v>
+        <v>2972662589.116416</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1212672312933812</v>
+        <v>0.1344975776611179</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02406308583000942</v>
+        <v>0.02097067651692537</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2015383329.495337</v>
+        <v>2094317362.217461</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1398959117081578</v>
+        <v>0.1759470115380013</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03008988249901021</v>
+        <v>0.03683439679130667</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5052605961.231508</v>
+        <v>4024613012.410189</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1025139067599432</v>
+        <v>0.06862912116089277</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04158529150477193</v>
+        <v>0.03316424730374156</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>41</v>
+      </c>
+      <c r="J63" t="n">
+        <v>82</v>
+      </c>
+      <c r="K63" t="n">
+        <v>164.0296397949106</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3757998788.455171</v>
+        <v>4933592272.355415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1644947204572376</v>
+        <v>0.1892623012409921</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02538336053642417</v>
+        <v>0.02793641283934828</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>41</v>
+      </c>
+      <c r="J64" t="n">
+        <v>82</v>
+      </c>
+      <c r="K64" t="n">
+        <v>168.2123897912342</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5145624178.522843</v>
+        <v>3794573593.203621</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1465884749694338</v>
+        <v>0.1466435733516535</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02168722728509528</v>
+        <v>0.02561363666634275</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>67</v>
+      </c>
+      <c r="J65" t="n">
+        <v>82</v>
+      </c>
+      <c r="K65" t="n">
+        <v>180.1810621769476</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5719359738.404616</v>
+        <v>5701923249.496929</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1120854414554144</v>
+        <v>0.1401170749212123</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03471132081579468</v>
+        <v>0.03101954033326778</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>41</v>
+      </c>
+      <c r="J66" t="n">
+        <v>82</v>
+      </c>
+      <c r="K66" t="n">
+        <v>169.204645105203</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2395655375.823648</v>
+        <v>2132736097.049444</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0774432330623562</v>
+        <v>0.1017341664931322</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04777049067480422</v>
+        <v>0.04927934644956283</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4811443845.49965</v>
+        <v>4614256626.166646</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1483562292006247</v>
+        <v>0.1383638774500178</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04798376833453872</v>
+        <v>0.03533726790594825</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>41</v>
+      </c>
+      <c r="J68" t="n">
+        <v>83</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2326180308.926044</v>
+        <v>2316840394.647683</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1745523375559941</v>
+        <v>0.127713933852079</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05684529571280107</v>
+        <v>0.05851082340900533</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2571070633.504372</v>
+        <v>2707505117.47665</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07723099443500442</v>
+        <v>0.08720550995702962</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03075528611115026</v>
+        <v>0.038967824190563</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4571208954.263489</v>
+        <v>5266677333.494552</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522080687937853</v>
+        <v>0.1171471097218336</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02951033605688329</v>
+        <v>0.02327514252522902</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69</v>
+      </c>
+      <c r="J71" t="n">
+        <v>83</v>
+      </c>
+      <c r="K71" t="n">
+        <v>182.5901871453646</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876463904.679318</v>
+        <v>1979888588.715937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09433531558148514</v>
+        <v>0.0901959287004199</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04801914920852231</v>
+        <v>0.04628135808724406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2438242573.228851</v>
+        <v>2661275218.839325</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1043754193874048</v>
+        <v>0.08948135520362974</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03321224061630264</v>
+        <v>0.03435462262276935</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3940165633.519862</v>
+        <v>2723799652.253231</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1219622348673741</v>
+        <v>0.1434203090600116</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03404355757818241</v>
+        <v>0.02402338657577311</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>82</v>
+      </c>
+      <c r="K74" t="n">
+        <v>94.16982084834994</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1551398473.462345</v>
+        <v>1998612888.826996</v>
       </c>
       <c r="F75" t="n">
-        <v>0.11551499023495</v>
+        <v>0.1240934498967495</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03213665699459872</v>
+        <v>0.03172051711522759</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4212566073.534228</v>
+        <v>3253536315.678328</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1168177931121026</v>
+        <v>0.1054308528594227</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02363526149292374</v>
+        <v>0.02451406369158843</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>38</v>
+      </c>
+      <c r="J76" t="n">
+        <v>81</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1907032572.461965</v>
+        <v>1944278658.581561</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1613810319337781</v>
+        <v>0.1639043254575012</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02834627939426109</v>
+        <v>0.02487495284149857</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4297046561.092831</v>
+        <v>4459171547.838885</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1187842699300087</v>
+        <v>0.09163167784635801</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05000893156234784</v>
+        <v>0.03785119456410128</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>39</v>
+      </c>
+      <c r="J78" t="n">
+        <v>83</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1278754725.191178</v>
+        <v>1199011129.634654</v>
       </c>
       <c r="F79" t="n">
-        <v>0.109898986396725</v>
+        <v>0.1583677624532323</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03675813723420795</v>
+        <v>0.03170532473059744</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4415382130.805529</v>
+        <v>5167133448.835488</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09360958391817886</v>
+        <v>0.08285010007977929</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03299689289402563</v>
+        <v>0.03269168633856993</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>39</v>
+      </c>
+      <c r="J80" t="n">
+        <v>83</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4311913036.800639</v>
+        <v>3771774119.062308</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08316360864313618</v>
+        <v>0.1094294191931193</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02853369597470441</v>
+        <v>0.02162689874107315</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>37</v>
+      </c>
+      <c r="J81" t="n">
+        <v>83</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3905593914.489848</v>
+        <v>4152986938.080374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.135655461502153</v>
+        <v>0.140523480269084</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02415838688544932</v>
+        <v>0.02005963228354092</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>52</v>
+      </c>
+      <c r="J82" t="n">
+        <v>83</v>
+      </c>
+      <c r="K82" t="n">
+        <v>185.7579485249324</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2275218808.765924</v>
+        <v>2244533391.847717</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1154689346496646</v>
+        <v>0.1262266810162576</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0348381132112654</v>
+        <v>0.02876537145086076</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2499998717.78087</v>
+        <v>1822819113.906464</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08377853076202595</v>
+        <v>0.09586045077881433</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04622782820131492</v>
+        <v>0.03169549076027902</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3641557434.317635</v>
+        <v>3479397842.876888</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1407644146614197</v>
+        <v>0.1237622253287566</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04921311958738106</v>
+        <v>0.05066961413298532</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1980966149.37866</v>
+        <v>2275646522.776204</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1676926496697591</v>
+        <v>0.1656615145033699</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02264319681572772</v>
+        <v>0.02623903446957418</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1178510568.184312</v>
+        <v>1494487737.50379</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1777334654051354</v>
+        <v>0.1653064977412451</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609001566414736</v>
+        <v>0.0307633039331474</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2557962341.581609</v>
+        <v>3000703122.101398</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1720585556229335</v>
+        <v>0.1643361901779214</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03944646375002038</v>
+        <v>0.03387646025836141</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3090442305.545625</v>
+        <v>2253632110.06893</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1415918336058653</v>
+        <v>0.1158655569091</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03834361707170272</v>
+        <v>0.02699051110472438</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2152672043.634315</v>
+        <v>1816943340.464371</v>
       </c>
       <c r="F90" t="n">
-        <v>0.102278435302147</v>
+        <v>0.09188851106548269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03913634347190965</v>
+        <v>0.04710037561037735</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1923159971.134851</v>
+        <v>1410564470.491514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.118506027883786</v>
+        <v>0.1361182899284895</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03863176560444613</v>
+        <v>0.03916198144497072</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1875847971.527969</v>
+        <v>2739019162.238321</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08236694543315229</v>
+        <v>0.06853235300687398</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03024236382594486</v>
+        <v>0.03531974949101916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5020836287.101697</v>
+        <v>3678881260.983031</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1327529750724935</v>
+        <v>0.1352699127300689</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05241787407003021</v>
+        <v>0.04219187828349436</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>37</v>
+      </c>
+      <c r="J93" t="n">
+        <v>83</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2053263888.576993</v>
+        <v>2196767813.029746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1027981580623312</v>
+        <v>0.1175233806862087</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02802688081044755</v>
+        <v>0.02803011690479174</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2370116907.46181</v>
+        <v>2880470911.024198</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1280818182921437</v>
+        <v>0.1213583225545811</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0385205236063948</v>
+        <v>0.0374768897738603</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2322857542.714741</v>
+        <v>2052072285.534748</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1262636227179623</v>
+        <v>0.1376341526447246</v>
       </c>
       <c r="G96" t="n">
-        <v>0.034152126875761</v>
+        <v>0.04195456794880602</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4606649400.136579</v>
+        <v>4317220580.703581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1574973589648871</v>
+        <v>0.1297331942670988</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02528664596115958</v>
+        <v>0.02482859766265514</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>39</v>
+      </c>
+      <c r="J97" t="n">
+        <v>83</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3664632648.807291</v>
+        <v>3761360377.5996</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1138767581878759</v>
+        <v>0.09618041021710071</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02620497390462318</v>
+        <v>0.03189018717810405</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>83</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2138382062.902425</v>
+        <v>3016325327.624104</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261456249966755</v>
+        <v>0.1303817420672363</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03440766842195572</v>
+        <v>0.03355710636274155</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3855586783.673265</v>
+        <v>4709948269.170173</v>
       </c>
       <c r="F100" t="n">
-        <v>0.134058939406666</v>
+        <v>0.1200439567446643</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02376503179922695</v>
+        <v>0.01902080974226222</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>82</v>
+      </c>
+      <c r="K100" t="n">
+        <v>165.3841681319062</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2250337401.175697</v>
+        <v>3263887129.859133</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1473100090805885</v>
+        <v>0.1531616144846402</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03738499386871245</v>
+        <v>0.05544401335701183</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
